--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,60 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>41547</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41455</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41364</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,26 +728,29 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
       </c>
       <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,26 +760,29 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,26 +792,29 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -824,8 +838,8 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -834,16 +848,19 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,26 +902,29 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +965,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -951,25 +978,28 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>21300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -979,26 +1009,29 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1043,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,26 +1055,29 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,26 +1087,29 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-21300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,26 +1119,29 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1109,25 +1152,28 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1201,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1233,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1196,25 +1248,28 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1225,25 +1280,28 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-7300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1425,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,26 +1439,29 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1399,25 +1472,28 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-7300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1521,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1457,59 +1536,65 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-7300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>41547</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41455</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41364</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1620,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1545,8 +1632,8 @@
       <c r="E41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="3">
-        <v>200</v>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -1563,8 +1650,11 @@
       <c r="K41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1682,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1632,26 +1728,29 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>5700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1661,8 +1760,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>200</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -1674,42 +1773,48 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>7200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>7000</v>
       </c>
       <c r="H46" s="3">
         <v>7000</v>
       </c>
       <c r="I46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J46" s="3">
         <v>7500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1719,8 +1824,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -1737,8 +1842,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1748,26 +1856,29 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
         <v>6500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1777,8 +1888,8 @@
       <c r="E49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
-        <v>200</v>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -1795,8 +1906,11 @@
       <c r="K49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1970,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2034,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1923,25 +2049,28 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>14300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2096,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1978,25 +2109,28 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,26 +2140,29 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7000</v>
       </c>
       <c r="I58" s="3">
         <v>7000</v>
       </c>
       <c r="J58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2036,54 +2173,60 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>20700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>29100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>26000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2094,25 +2237,28 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>7600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>10200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>13100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2286,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2382,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>36700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2492,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2556,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2397,25 +2571,28 @@
         <v>-97300</v>
       </c>
       <c r="F72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-121100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-105100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-87100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2684,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-22400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-19900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2748,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>41547</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41455</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41364</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2605,25 +2800,28 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-7300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2833,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,8 +2845,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -2656,16 +2855,19 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3023,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2821,25 +3038,28 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3071,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,8 +3083,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -2872,16 +3093,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3165,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2959,16 +3189,19 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3339,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3108,25 +3354,28 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3136,26 +3385,29 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3175,12 +3427,15 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,63 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41547</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41455</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -731,26 +734,29 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,26 +769,29 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,26 +804,29 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +854,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -851,16 +864,19 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,26 +924,29 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,8 +991,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -981,25 +1007,28 @@
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>21300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,26 +1041,29 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,8 +1076,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1058,26 +1091,29 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1090,26 +1126,29 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,26 +1161,29 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1155,25 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-7300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-30200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,8 +1284,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1251,25 +1302,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-30200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,25 +1337,28 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-7300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-30200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,8 +1494,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1442,26 +1511,29 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1475,25 +1547,28 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-7300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-30200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,8 +1599,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1539,62 +1617,68 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-7300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-30200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41547</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41455</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,8 +1706,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1635,8 +1721,8 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="3">
-        <v>200</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
@@ -1653,8 +1739,11 @@
       <c r="L41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1731,26 +1826,29 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
         <v>5700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1763,8 +1861,8 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1776,45 +1874,51 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>7200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>7000</v>
       </c>
       <c r="I46" s="3">
         <v>7000</v>
       </c>
       <c r="J46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1827,8 +1931,8 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -1845,8 +1949,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1859,26 +1966,29 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
         <v>6500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1891,8 +2001,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>200</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -1909,8 +2019,11 @@
       <c r="L49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,8 +2159,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2052,25 +2177,28 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>14300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,8 +2226,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2112,25 +2242,28 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2143,31 +2276,34 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7000</v>
       </c>
       <c r="J58" s="3">
         <v>7000</v>
       </c>
       <c r="K58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2176,25 +2312,28 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>20700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2202,31 +2341,34 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>29100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>26000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2240,25 +2382,28 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>10200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2289,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,8 +2539,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2394,31 +2551,34 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>36700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,8 +2729,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2574,25 +2747,28 @@
         <v>-97300</v>
       </c>
       <c r="G72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-121100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-113900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-87100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,8 +2869,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2696,31 +2881,34 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-22400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,45 +2939,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41547</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41455</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2803,25 +2997,28 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-7300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-30200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2848,8 +3046,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>200</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -2858,16 +3056,19 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3041,25 +3257,28 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3086,8 +3306,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3096,16 +3316,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3192,16 +3421,19 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3357,25 +3602,28 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3388,26 +3636,29 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3430,12 +3681,15 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,71 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>41547</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -737,26 +745,32 @@
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,26 +786,32 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,26 +827,32 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +866,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,26 +885,32 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +944,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,26 +967,32 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>1600</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,8 +1044,10 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1010,25 +1064,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>21300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,26 +1104,32 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-20400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1143,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1094,26 +1162,32 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1129,26 +1203,32 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-16200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-21300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,26 +1244,32 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1200,25 +1286,31 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-30200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1344,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1385,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1305,25 +1409,31 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-30200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1340,25 +1450,31 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-30200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1631,14 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1514,26 +1654,32 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1550,25 +1696,31 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-30200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1754,14 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1620,65 +1778,77 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-30200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>41547</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1879,10 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1724,11 +1898,11 @@
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
@@ -1742,8 +1916,14 @@
       <c r="M41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1957,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1788,32 +1974,38 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1829,26 +2021,32 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3">
         <v>5700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>5400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1864,11 +2062,11 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1877,13 +2075,19 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1893,32 +2097,38 @@
       <c r="E46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1934,11 +2144,11 @@
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -1952,8 +2162,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1969,26 +2185,32 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>6500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2004,11 +2226,11 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>200</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2326,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2103,32 +2343,38 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,8 +2408,14 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2180,25 +2432,31 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>14300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2487,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2245,25 +2507,31 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2279,26 +2547,32 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,34 +2580,40 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>20700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>18400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>12700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2344,31 +2624,37 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>29100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>26000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>9000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2385,25 +2671,31 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>11100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>13100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2852,14 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,31 +2870,37 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>36700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>34800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>30700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>26200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +3033,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,8 +3074,14 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2750,25 +3098,31 @@
         <v>-97300</v>
       </c>
       <c r="H72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-121100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-113900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-105100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-87100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-73200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3238,14 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2884,31 +3256,37 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-22400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-19900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-15400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3320,60 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>41547</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3000,25 +3390,31 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-30200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3428,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3049,26 +3447,32 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>900</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3670,14 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3260,25 +3694,31 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,22 +3732,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -3319,16 +3761,22 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3851,14 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3424,16 +3884,22 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +4073,14 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3605,25 +4097,31 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3639,26 +4137,32 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3684,12 +4188,18 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,26 +755,29 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
       </c>
       <c r="N8" s="3">
+        <v>900</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,26 +799,29 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,26 +843,29 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>100</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -901,16 +915,19 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,26 +993,29 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,8 +1072,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1070,25 +1097,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1110,26 +1140,29 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1168,26 +1202,29 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1209,26 +1246,29 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-21300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,26 +1290,29 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1292,25 +1335,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-30200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +1440,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1415,25 +1467,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-30200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,25 +1511,28 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1660,26 +1730,29 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1702,25 +1775,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-30200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,8 +1836,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1784,71 +1863,77 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-30200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +1967,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1904,8 +1991,8 @@
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3">
-        <v>200</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -1922,8 +2009,11 @@
       <c r="O41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,8 +2053,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1980,32 +2073,35 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2027,26 +2123,29 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2068,8 +2167,8 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2081,13 +2180,16 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2103,32 +2205,35 @@
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>7200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>7000</v>
       </c>
       <c r="L46" s="3">
         <v>7000</v>
       </c>
       <c r="M46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2150,8 +2255,8 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2168,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2191,26 +2299,29 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>6500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2232,8 +2343,8 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>200</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2349,32 +2469,35 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,8 +2537,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2438,25 +2564,28 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>14300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2619,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2513,25 +2644,28 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>800</v>
       </c>
       <c r="M57" s="3">
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2553,26 +2687,29 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7000</v>
       </c>
       <c r="M58" s="3">
         <v>7000</v>
       </c>
       <c r="N58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2586,7 +2723,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2595,25 +2732,28 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>20700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2630,31 +2770,34 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>29100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2677,25 +2820,28 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3013,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2876,31 +3034,34 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>36700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,13 +3251,16 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-97300</v>
+        <v>-97400</v>
       </c>
       <c r="E72" s="3">
         <v>-97300</v>
@@ -3104,25 +3278,28 @@
         <v>-97300</v>
       </c>
       <c r="J72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-121100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,8 +3427,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3262,31 +3448,34 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-22400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-19900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,54 +3515,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3396,25 +3591,28 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-30200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3453,8 +3652,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>200</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3463,16 +3662,19 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3890,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3700,25 +3917,28 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3954,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3767,16 +3988,19 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4084,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3890,16 +4120,19 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4322,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4103,25 +4349,28 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4143,26 +4392,29 @@
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4194,12 +4446,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-3800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,82 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>41274</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>41182</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,26 +765,32 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,26 +815,32 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,26 +865,32 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,26 +935,32 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -996,26 +1035,32 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L14" s="3">
-        <v>200</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>1600</v>
       </c>
       <c r="N14" s="3">
+        <v>200</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,8 +1124,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1100,25 +1153,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>21300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,26 +1202,32 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-20400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1244,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1205,26 +1272,32 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1249,26 +1322,32 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-21300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,31 +1372,37 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1338,25 +1423,31 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-7300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-30200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,13 +1540,19 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1470,30 +1573,36 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-7300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-30200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1514,25 +1623,31 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-30200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1840,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1733,31 +1872,37 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1778,25 +1923,31 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-30200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,13 +1990,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1866,74 +2023,86 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-30200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>41274</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>41182</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,37 +2139,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2012,8 +2185,14 @@
       <c r="P41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,25 +2235,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2083,98 +2268,110 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>7300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
         <v>5700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2183,30 +2380,36 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2215,54 +2418,60 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2276,81 +2485,93 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>6500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>200</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>200</v>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,32 +2711,38 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2567,25 +2818,31 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>14300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>25500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2647,69 +2908,81 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2726,34 +2999,40 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>20700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>18400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>12700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2773,31 +3052,37 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>29100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>26000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2823,25 +3108,31 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>10200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>11100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>13100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3037,31 +3352,37 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>36700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>26200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>22100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3263,10 +3610,10 @@
         <v>-97400</v>
       </c>
       <c r="E72" s="3">
-        <v>-97300</v>
+        <v>-97400</v>
       </c>
       <c r="F72" s="3">
-        <v>-97300</v>
+        <v>-97400</v>
       </c>
       <c r="G72" s="3">
         <v>-97300</v>
@@ -3281,25 +3628,31 @@
         <v>-97300</v>
       </c>
       <c r="K72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-121100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-113900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-105100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-87100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-73200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3451,31 +3822,37 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-19900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,62 +3895,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>41274</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>41182</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3594,25 +3983,31 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-30200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3920,25 +4353,31 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3973,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3991,16 +4432,22 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4123,16 +4582,22 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4352,69 +4843,81 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4449,12 +4952,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-3800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41455</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41364</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41274</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41182</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,26 +775,29 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>900</v>
       </c>
       <c r="P8" s="3">
         <v>900</v>
       </c>
       <c r="Q8" s="3">
+        <v>900</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,26 +828,29 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,26 +881,29 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,8 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -951,16 +965,19 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1041,26 +1061,29 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1159,25 +1186,28 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1208,26 +1238,29 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,26 +1312,29 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1328,26 +1365,29 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-4900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1378,31 +1418,34 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1429,25 +1472,28 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,13 +1595,16 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1579,30 +1631,33 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1629,25 +1684,28 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,31 +1948,34 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>2400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1929,25 +2002,28 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,13 +2072,16 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2029,80 +2108,86 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41455</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41364</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41274</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41182</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2167,14 +2254,14 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>200</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2274,25 +2367,28 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2317,32 +2413,35 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>5700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,14 +2466,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -2386,13 +2485,16 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2424,25 +2526,28 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>7200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>7000</v>
       </c>
       <c r="O46" s="3">
         <v>7000</v>
       </c>
       <c r="P46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Q46" s="3">
         <v>7500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2467,14 +2572,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2517,32 +2625,35 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>6500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2567,14 +2678,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>200</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,32 +2837,35 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2824,25 +2950,28 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>14300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2914,25 +3045,28 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
       </c>
       <c r="P57" s="3">
         <v>800</v>
       </c>
       <c r="Q57" s="3">
+        <v>800</v>
+      </c>
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2957,32 +3091,35 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7000</v>
       </c>
       <c r="P58" s="3">
         <v>7000</v>
       </c>
       <c r="Q58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3005,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3014,25 +3151,28 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>20700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3058,31 +3198,34 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>29100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>26000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3114,25 +3257,28 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3358,31 +3516,34 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>36700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3616,7 +3790,7 @@
         <v>-97400</v>
       </c>
       <c r="G72" s="3">
-        <v>-97300</v>
+        <v>-97400</v>
       </c>
       <c r="H72" s="3">
         <v>-97300</v>
@@ -3634,25 +3808,28 @@
         <v>-97300</v>
       </c>
       <c r="M72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-121100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-113900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-105100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-87100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3984,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3828,31 +4014,34 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>-22400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-19900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,68 +4090,74 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41455</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41364</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41274</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41182</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3989,25 +4184,28 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,14 +4251,14 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>200</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4068,16 +4267,19 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4359,25 +4576,28 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4414,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4438,16 +4659,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4588,16 +4818,19 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4849,25 +5095,28 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4892,32 +5141,35 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4958,12 +5210,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-3800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HGYN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>HGYN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41547</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41455</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41364</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41274</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41182</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,26 +782,29 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>900</v>
       </c>
       <c r="Q8" s="3">
         <v>900</v>
       </c>
       <c r="R8" s="3">
+        <v>900</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -831,26 +838,29 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,26 +894,29 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,8 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>100</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -968,16 +982,19 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1064,26 +1084,29 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1179,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1189,25 +1216,28 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,26 +1271,29 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1315,26 +1349,29 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1368,26 +1405,29 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-4900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-21300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,31 +1461,34 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1475,25 +1518,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,13 +1647,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1634,30 +1686,33 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-30200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1687,25 +1742,28 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-30200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,31 +2021,34 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>2400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2005,25 +2078,28 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-30200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,13 +2151,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2111,83 +2190,89 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-30200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41547</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41455</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41364</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41274</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41182</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2257,14 +2344,14 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>200</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
@@ -2281,8 +2368,11 @@
       <c r="S41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2424,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2370,25 +2463,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2416,32 +2512,35 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2469,14 +2568,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>200</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2488,13 +2587,16 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>1100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2529,25 +2631,28 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>7200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>7000</v>
       </c>
       <c r="P46" s="3">
         <v>7000</v>
       </c>
       <c r="Q46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R46" s="3">
         <v>7500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2575,14 +2680,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2628,32 +2736,35 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>6500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2681,14 +2792,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>200</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2840,32 +2960,35 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3040,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2953,25 +3079,28 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>14300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3048,25 +3179,28 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>800</v>
       </c>
       <c r="Q57" s="3">
         <v>800</v>
       </c>
       <c r="R57" s="3">
+        <v>800</v>
+      </c>
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3094,32 +3228,35 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>7400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>7000</v>
       </c>
       <c r="Q58" s="3">
         <v>7000</v>
       </c>
       <c r="R58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S58" s="3">
         <v>4500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3145,7 +3282,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3154,25 +3291,28 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>20700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3201,31 +3341,34 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>29100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>26000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3260,25 +3403,28 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3644,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3519,31 +3677,34 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>36700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3946,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3793,7 +3967,7 @@
         <v>-97400</v>
       </c>
       <c r="H72" s="3">
-        <v>-97300</v>
+        <v>-97400</v>
       </c>
       <c r="I72" s="3">
         <v>-97300</v>
@@ -3811,25 +3985,28 @@
         <v>-97300</v>
       </c>
       <c r="N72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-121100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-113900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-105100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-87100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-73200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,8 +4170,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4017,31 +4203,34 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-22400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-19900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,71 +4282,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41547</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41455</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41364</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41274</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41182</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4187,25 +4382,28 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-30200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4254,14 +4453,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>200</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4270,16 +4469,19 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4579,25 +4796,28 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4662,16 +4883,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4821,16 +5051,19 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5098,25 +5344,28 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5144,32 +5393,35 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5213,12 +5465,15 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-3800</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-3800</v>
       </c>
     </row>
